--- a/anteproyecto/cronograma/cronograma-v1.xlsx
+++ b/anteproyecto/cronograma/cronograma-v1.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit.sharepoint.com/sites/MecnicaAplicada-Proyectosavanzados/Documentos compartidos/Proyectos avanzados/2024_holografia_acustica/Anteproyecto/cronograma/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomm\Documents\GitHub\proyecto-avanzado-1\anteproyecto\cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{7D6C538D-F683-411E-AB60-6BC99433ACD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23881CD0-0CE0-4975-AC13-B86CE53F81C6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B837976F-D3A0-4C8B-8CE9-52BEBCEB1AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6CF2FADC-CBB8-4A89-A0ED-068ADB0FE2AC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{6CF2FADC-CBB8-4A89-A0ED-068ADB0FE2AC}"/>
   </bookViews>
   <sheets>
     <sheet name="crono-v1.1" sheetId="1" r:id="rId1"/>
-    <sheet name="crono-v1.2" sheetId="2" r:id="rId2"/>
+    <sheet name="Gráfico2" sheetId="4" r:id="rId2"/>
+    <sheet name="Gráfico1" sheetId="3" r:id="rId3"/>
+    <sheet name="crono-v1.2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -615,8 +617,1610 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1238195824"/>
+        <c:axId val="1238198224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1238195824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1238198224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1238198224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1238195824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1238193424"/>
+        <c:axId val="1238207824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1238193424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1238207824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1238207824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1238193424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{14AED6C9-3BE6-45CB-94B9-762F85312F2F}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="82" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3C415F57-57AA-4287-99AF-698BE8EB28C2}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="82" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8651488" cy="6272561"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8005E8B-5543-80B2-F72F-0E86B5312C8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8651488" cy="6272561"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5347D77-2F75-D68B-A26B-22F175372CD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1676,8 +3280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222DD1-2DF2-4822-BDF7-11664894AADA}">
   <dimension ref="B2:U22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="147" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1776,7 +3380,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="26"/>
@@ -1802,7 +3406,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="20">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
@@ -1854,7 +3458,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -1880,7 +3484,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="40">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1932,7 +3536,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -1958,7 +3562,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="40">
-        <v>0.05</v>
+        <v>0.61</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1984,7 +3588,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2009,7 +3613,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="20">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2034,7 +3638,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2059,7 +3663,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="20">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2105,7 +3709,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2157,7 +3761,7 @@
         <v>41</v>
       </c>
       <c r="C19" s="40">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2183,7 +3787,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2209,7 +3813,7 @@
         <v>43</v>
       </c>
       <c r="C21" s="20">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2235,7 +3839,7 @@
         <v>44</v>
       </c>
       <c r="C22" s="22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
@@ -2271,15 +3875,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100815EFEB595E17147A26637DCC3CFFB9A" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b8c8fccb46dda5125ebbd148d1a5cc04">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9d28f84-cdda-4a6e-8882-15935dbf5c9a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0fb023cc3ba204a8896b1530a2a3e4d1" ns2:_="">
     <xsd:import namespace="f9d28f84-cdda-4a6e-8882-15935dbf5c9a"/>
@@ -2423,6 +4018,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76CE50F3-628E-4394-BDDD-410065637CCB}">
   <ds:schemaRefs>
@@ -2440,14 +4044,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350A76D1-6034-4353-8DD5-2D41A032E354}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95FD54A3-3FF5-4ED5-8FC6-4FFE3DD0A306}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2463,4 +4059,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350A76D1-6034-4353-8DD5-2D41A032E354}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>